--- a/Barbie_Financiera_FASE_2/BF-0042/BF-0042 Defectos.xlsx
+++ b/Barbie_Financiera_FASE_2/BF-0042/BF-0042 Defectos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kmmel\Downloads\Proyecto-PDS-BarbieFinanciera\Barbie_Financiera_FASE_2\BF-0041\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kmmel\Downloads\Proyecto-PDS-BarbieFinanciera\Barbie_Financiera_FASE_2\BF-0042\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7112C12-B27A-4ADF-B738-6F7A464AF986}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F687240E-B30E-4443-BCDB-C7AE948065EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20520" yWindow="765" windowWidth="20640" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
   <si>
     <t>ID DE DEFECTO</t>
   </si>
@@ -80,71 +80,64 @@
     <t>NOTAS</t>
   </si>
   <si>
-    <t>Revisar carpeta de Evidencia de defectos, archivo DE001</t>
-  </si>
-  <si>
-    <t>Media</t>
-  </si>
-  <si>
     <t>Alta</t>
   </si>
   <si>
-    <t>No muestra mensaje de error al exceder ingreso neto</t>
-  </si>
-  <si>
-    <t>El sistema permite guardar un presupuesto donde el monto asignado a una categoría de gasto excede el ingreso neto mensual, sin mostrar un error.</t>
+    <t>Abierto</t>
+  </si>
+  <si>
+    <t>Melissa Torres</t>
+  </si>
+  <si>
+    <t>BF-0042DE005</t>
+  </si>
+  <si>
+    <t>BF-0042DE007</t>
+  </si>
+  <si>
+    <t>No recalcula balance al modificar el monto de una categoría</t>
+  </si>
+  <si>
+    <t>El sistema permite actualizar el monto de una categoría a un valor mayor sin recalcular el balance general automáticamente.</t>
   </si>
   <si>
     <t>1. Iniciar sesión en el sistema.
-2. Ir a la página de creación de presupuesto.
-3. Ingresar "1000" en el campo de ingreso neto mensual.
-4. Ingresar "1500" en la categoría "Alimentación".
-5. Pulsar el botón de "Guardar".</t>
-  </si>
-  <si>
-    <t>El sistema muestra un mensaje de error indicando que el monto asignado a la categoría excede el ingreso neto mensual y no permite guardar el presupuesto.</t>
-  </si>
-  <si>
-    <t>El sistema permite guardar el presupuesto sin mostrar ningún mensaje de error.</t>
-  </si>
-  <si>
-    <t>Abierto</t>
-  </si>
-  <si>
-    <t>Melissa Torres</t>
-  </si>
-  <si>
-    <t>El defecto afecta la validación de presupuesto.</t>
-  </si>
-  <si>
-    <t>Falta de botón para editar categoría guardada</t>
-  </si>
-  <si>
-    <t>El sistema no muestra ninguna opción o botón para editar el monto en una categoría ya guardada en el presupuesto.</t>
-  </si>
-  <si>
-    <t>El defecto impide la modificación de presupuestos guardados.</t>
+2. Dirigirse a la página de Detalles.
+3. Verificar que la categoría "Alimentación" tiene un monto de $300 y el balance general refleja los montos actuales.
+4. Ir al menú y seleccionar "Editar Categoría", eligiendo "Alimentación".
+5. Ingresar un nuevo monto mayor (ej. $500) en el campo de la categoría "Alimentación".
+6. Confirmar los cambios en el presupuesto.</t>
+  </si>
+  <si>
+    <t>El sistema debería recalcular el balance general automáticamente al modificar el monto de una categoría.</t>
+  </si>
+  <si>
+    <t>El sistema permite modificar el monto de la categoría sin recalcular el balance general al instante.</t>
+  </si>
+  <si>
+    <t>Revisar carpeta de Evidencia de defectos, archivo DE005</t>
+  </si>
+  <si>
+    <t>Revisar carpeta de Evidencia de defectos, archivo DE007</t>
+  </si>
+  <si>
+    <t>Permite modificar el monto de una categoría para que exceda el ingreso mensual</t>
+  </si>
+  <si>
+    <t>El sistema permite modificar el monto de una categoría en el presupuesto de forma que el total de todas las categorías sobrepase el ingreso mensual, sin mostrar un error.</t>
   </si>
   <si>
     <t>1. Iniciar sesión en el sistema.
-2. Ir a la página de presupuestos guardados.
-3. Seleccionar el presupuesto a editar.
-4. Intentar buscar el botón de edición para la categoría .</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El sistema no muestra ninguna opción para editar el monto de CUALQUIER categoría </t>
-  </si>
-  <si>
-    <t>El sistema debería permitir al usuario editar el monto de una categoría en el presupuesto guardado.</t>
-  </si>
-  <si>
-    <t>Revisar carpeta de Evidencia de defectos, archivo DE002</t>
-  </si>
-  <si>
-    <t>BF-0041DE001</t>
-  </si>
-  <si>
-    <t>BF-0041DE002</t>
+2. Dirigirse a la página de presupuestos guardados.
+3. Seleccionar el presupuesto actual.
+4. Editar la categoría "Alimentación" para aumentar su monto a $1800.
+5. Confirmar el cambio en la categoría.</t>
+  </si>
+  <si>
+    <t>El sistema debería mostrar un mensaje de error indicando que la modificación del monto excede el ingreso mensual disponible y no permitir el cambio.</t>
+  </si>
+  <si>
+    <t>El sistema permite guardar el cambio sin mostrar ningún mensaje de error.</t>
   </si>
 </sst>
 </file>
@@ -1459,16 +1452,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.36328125" defaultRowHeight="20" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="12.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.1796875" style="1" customWidth="1"/>
     <col min="2" max="2" width="24" style="1" customWidth="1"/>
     <col min="3" max="3" width="37.453125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="45.1796875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="55.81640625" style="1" customWidth="1"/>
     <col min="5" max="6" width="31.90625" style="1" customWidth="1"/>
     <col min="7" max="15" width="16.36328125" style="1" customWidth="1"/>
     <col min="16" max="16384" width="16.36328125" style="1"/>
@@ -1518,93 +1511,89 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="87">
+    <row r="2" spans="1:14" ht="187" customHeight="1">
       <c r="A2" s="10" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>23</v>
-      </c>
       <c r="K2" s="6">
-        <v>45546</v>
+        <v>45607</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="N2" s="7" t="s">
         <v>24</v>
       </c>
+      <c r="N2" s="7"/>
     </row>
     <row r="3" spans="1:14" ht="106.5" customHeight="1">
       <c r="A3" s="10" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>28</v>
       </c>
       <c r="E3" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="7" t="s">
-        <v>29</v>
-      </c>
       <c r="G3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="K3" s="6">
+        <v>45607</v>
+      </c>
+      <c r="L3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="K3" s="6">
-        <v>45546</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>23</v>
-      </c>
       <c r="M3" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>27</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="N3" s="7"/>
     </row>
     <row r="4" spans="1:14" ht="20.149999999999999" customHeight="1">
       <c r="A4" s="8"/>
